--- a/Code/Output/YTD_Report/JanEngines.xlsx
+++ b/Code/Output/YTD_Report/JanEngines.xlsx
@@ -1,463 +1,480 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\Code\Output\YTD_Report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92677FC7-A184-4C18-AA23-411958306F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="10890" yWindow="2265" windowWidth="16980" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
-  <si>
-    <t xml:space="preserve">RMA ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item.ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return Qty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT BASIC BEVELED STD CRI 3500K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELECTRICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT BASIC BEVELED STD CRI 4000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED STD CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 32W 90CRI 2700-2200K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 36W 80CRI 4000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 CSD/CS1 80CRI 6000-2200K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 32W 80CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 80CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 DL/WW 16W STD CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 90CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 90CRI 2700K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED STD CRI 2700K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED STD CRI 3500K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT BASIC BEVELED STD CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-6" BEVELED ADJ STD CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 80CRI 3500K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED HI CRI 2700K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT PRIMARY STD CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 WGD/CCD 32W STD CRI 2700-2200KS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT SLIVERLED HI CRI 2700K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT SLIVERLED STD CRI 3500K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 80CRI 2700K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 32W 80CRI 2700-2200K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 90CRI 3500K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 DL/WW-GEN2-33W STD CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED STD CRI 4000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT SLIVERLED STD  CRI 2700K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEM-319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT MINI X 80 HI CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT MINI X 90 CRI 2700K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT MINI X 80 CRI 3500K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 16W 90CRI 3000-2200K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT PRIMARY HI CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 80CRI 4000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED HI CRI 3000K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMA13375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUOTATION ERROR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="146">
+  <si>
+    <t>RMA ID</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Item.ID</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Return Qty</t>
+  </si>
+  <si>
+    <t>Reason Code</t>
+  </si>
+  <si>
+    <t>RMA13443</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>LEM-213</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BASIC BEVELED STD CRI 3500K</t>
+  </si>
+  <si>
+    <t>ELECTRICAL</t>
+  </si>
+  <si>
+    <t>RMA13514</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BASIC BEVELED STD CRI 4000K</t>
+  </si>
+  <si>
+    <t>RMA13383</t>
+  </si>
+  <si>
+    <t>LEM-203</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED STD CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13434</t>
+  </si>
+  <si>
+    <t>RMA13377</t>
+  </si>
+  <si>
+    <t>LEM-275</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 32W 90CRI 2700-2200K</t>
+  </si>
+  <si>
+    <t>RMA13527</t>
+  </si>
+  <si>
+    <t>LEM-293</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 36W 80CRI 4000K</t>
+  </si>
+  <si>
+    <t>RMA13493</t>
+  </si>
+  <si>
+    <t>LEM-212</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 CSD/CS1 80CRI 6000-2200K</t>
+  </si>
+  <si>
+    <t>RMA13508</t>
+  </si>
+  <si>
+    <t>RMA13492</t>
+  </si>
+  <si>
+    <t>LEM-273</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 32W 80CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13544</t>
+  </si>
+  <si>
+    <t>LEM-240</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 80CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13488</t>
+  </si>
+  <si>
+    <t>LEM-230</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 DL/WW 16W STD CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13391</t>
+  </si>
+  <si>
+    <t>RMA13378</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 90CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13400</t>
+  </si>
+  <si>
+    <t>RMA13446</t>
+  </si>
+  <si>
+    <t>RMA13410</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 90CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA13386</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED STD CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA13478</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED STD CRI 3500K</t>
+  </si>
+  <si>
+    <t>RMA13526</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BASIC BEVELED STD CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13359</t>
+  </si>
+  <si>
+    <t>RMA13367</t>
+  </si>
+  <si>
+    <t>LEM-236</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-6" BEVELED ADJ STD CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13466</t>
+  </si>
+  <si>
+    <t>RMA13437</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 80CRI 3500K</t>
+  </si>
+  <si>
+    <t>RMA13530</t>
+  </si>
+  <si>
+    <t>RMA13447</t>
+  </si>
+  <si>
+    <t>RMA13365</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED HI CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA13477</t>
+  </si>
+  <si>
+    <t>LEM-307</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT PRIMARY STD CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13467</t>
+  </si>
+  <si>
+    <t>RMA13369</t>
+  </si>
+  <si>
+    <t>RMA13497</t>
+  </si>
+  <si>
+    <t>LEM-198</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 WGD/CCD 32W STD CRI 2700-2200KS</t>
+  </si>
+  <si>
+    <t>RMA13470</t>
+  </si>
+  <si>
+    <t>RMA13539</t>
+  </si>
+  <si>
+    <t>RMA13506</t>
+  </si>
+  <si>
+    <t>RMA13525</t>
+  </si>
+  <si>
+    <t>RMA13504</t>
+  </si>
+  <si>
+    <t>RMA13502</t>
+  </si>
+  <si>
+    <t>RMA13380</t>
+  </si>
+  <si>
+    <t>LEM-274</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED HI CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA13472</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED STD CRI 3500K</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 80CRI 2700K</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 32W 80CRI 2700-2200K</t>
+  </si>
+  <si>
+    <t>RMA13456</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 90CRI 3500K</t>
+  </si>
+  <si>
+    <t>RMA13542</t>
+  </si>
+  <si>
+    <t>RMA13389</t>
+  </si>
+  <si>
+    <t>RMA13395</t>
+  </si>
+  <si>
+    <t>RMA13415</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED 2.0 DL/WW-GEN2-33W STD CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13500</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED STD CRI 4000K</t>
+  </si>
+  <si>
+    <t>RMA13457</t>
+  </si>
+  <si>
+    <t>RMA13531</t>
+  </si>
+  <si>
+    <t>RMA13388</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED STD  CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA13484</t>
+  </si>
+  <si>
+    <t>RMA13515</t>
+  </si>
+  <si>
+    <t>RMA13469</t>
+  </si>
+  <si>
+    <t>RMA13487</t>
+  </si>
+  <si>
+    <t>RMA13509</t>
+  </si>
+  <si>
+    <t>RMA13471</t>
+  </si>
+  <si>
+    <t>RMA13368</t>
+  </si>
+  <si>
+    <t>LEM-319</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT MINI X 80 HI CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13382</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT MINI X 90 CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA13403</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT MINI X 80 CRI 3500K</t>
+  </si>
+  <si>
+    <t>RMA13363</t>
+  </si>
+  <si>
+    <t>RMA13498</t>
+  </si>
+  <si>
+    <t>RMA13535</t>
+  </si>
+  <si>
+    <t>RMA13362</t>
+  </si>
+  <si>
+    <t>RMA13439</t>
+  </si>
+  <si>
+    <t>RMA13376</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 16W 90CRI 3000-2200K</t>
+  </si>
+  <si>
+    <t>RMA13510</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT PRIMARY HI CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13411</t>
+  </si>
+  <si>
+    <t>RMA13479</t>
+  </si>
+  <si>
+    <t>RMA13474</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 9-33W 80CRI 4000K</t>
+  </si>
+  <si>
+    <t>RMA13455</t>
+  </si>
+  <si>
+    <t>RMA13461</t>
+  </si>
+  <si>
+    <t>RMA13543</t>
+  </si>
+  <si>
+    <t>RMA13519</t>
+  </si>
+  <si>
+    <t>RMA13528</t>
+  </si>
+  <si>
+    <t>RMA13520</t>
+  </si>
+  <si>
+    <t>RMA13414</t>
+  </si>
+  <si>
+    <t>RMA13431</t>
+  </si>
+  <si>
+    <t>RMA13486</t>
+  </si>
+  <si>
+    <t>RMA13351</t>
+  </si>
+  <si>
+    <t>RMA13413</t>
+  </si>
+  <si>
+    <t>RMA13399</t>
+  </si>
+  <si>
+    <t>RMA13534</t>
+  </si>
+  <si>
+    <t>RMA13354</t>
+  </si>
+  <si>
+    <t>RMA13402</t>
+  </si>
+  <si>
+    <t>RMA13523</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT NANO/MINI BEVELED HI CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA13513</t>
+  </si>
+  <si>
+    <t>RMA13401</t>
+  </si>
+  <si>
+    <t>RMA13381</t>
+  </si>
+  <si>
+    <t>RMA13426</t>
+  </si>
+  <si>
+    <t>RMA13385</t>
+  </si>
+  <si>
+    <t>RMA13384</t>
+  </si>
+  <si>
+    <t>RMA13490</t>
+  </si>
+  <si>
+    <t>RMA13375</t>
+  </si>
+  <si>
+    <t>QUOTATION ERROR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,6 +510,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -774,14 +800,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E104" sqref="E2:E104"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -814,14 +847,14 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -834,14 +867,14 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -854,14 +887,14 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -874,14 +907,14 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -894,14 +927,14 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -914,14 +947,14 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -934,14 +967,14 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -954,14 +987,14 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -974,14 +1007,14 @@
       <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -994,14 +1027,14 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1014,14 +1047,14 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1034,14 +1067,14 @@
       <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1054,14 +1087,14 @@
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1074,14 +1107,14 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1094,14 +1127,14 @@
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>6</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1114,14 +1147,14 @@
       <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>7</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1134,14 +1167,14 @@
       <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1154,14 +1187,14 @@
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1174,14 +1207,14 @@
       <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1194,14 +1227,14 @@
       <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1214,14 +1247,14 @@
       <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1234,14 +1267,14 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1254,14 +1287,14 @@
       <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1274,14 +1307,14 @@
       <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1294,14 +1327,14 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1314,14 +1347,14 @@
       <c r="D27" t="s">
         <v>38</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1334,14 +1367,14 @@
       <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1354,14 +1387,14 @@
       <c r="D29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1374,14 +1407,14 @@
       <c r="D30" t="s">
         <v>44</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1394,14 +1427,14 @@
       <c r="D31" t="s">
         <v>55</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1414,14 +1447,14 @@
       <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1434,14 +1467,14 @@
       <c r="D33" t="s">
         <v>62</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -1454,14 +1487,14 @@
       <c r="D34" t="s">
         <v>48</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>6</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1474,14 +1507,14 @@
       <c r="D35" t="s">
         <v>38</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1494,14 +1527,14 @@
       <c r="D36" t="s">
         <v>62</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>11</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1514,14 +1547,14 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1534,14 +1567,14 @@
       <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1554,14 +1587,14 @@
       <c r="D39" t="s">
         <v>46</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1574,14 +1607,14 @@
       <c r="D40" t="s">
         <v>76</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1594,14 +1627,14 @@
       <c r="D41" t="s">
         <v>67</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>6</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -1614,14 +1647,14 @@
       <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1634,14 +1667,14 @@
       <c r="D43" t="s">
         <v>79</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -1654,14 +1687,14 @@
       <c r="D44" t="s">
         <v>80</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -1674,14 +1707,14 @@
       <c r="D45" t="s">
         <v>82</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -1694,14 +1727,14 @@
       <c r="D46" t="s">
         <v>46</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -1714,14 +1747,14 @@
       <c r="D47" t="s">
         <v>32</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -1734,14 +1767,14 @@
       <c r="D48" t="s">
         <v>55</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>7</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -1754,14 +1787,14 @@
       <c r="D49" t="s">
         <v>87</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>7</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -1774,14 +1807,14 @@
       <c r="D50" t="s">
         <v>89</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>18</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -1794,14 +1827,14 @@
       <c r="D51" t="s">
         <v>55</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -1814,14 +1847,14 @@
       <c r="D52" t="s">
         <v>55</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>11</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -1834,14 +1867,14 @@
       <c r="D53" t="s">
         <v>93</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -1854,14 +1887,14 @@
       <c r="D54" t="s">
         <v>25</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -1874,14 +1907,14 @@
       <c r="D55" t="s">
         <v>55</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -1894,14 +1927,14 @@
       <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>29</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -1914,14 +1947,14 @@
       <c r="D57" t="s">
         <v>59</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>11</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -1934,14 +1967,14 @@
       <c r="D58" t="s">
         <v>46</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -1954,14 +1987,14 @@
       <c r="D59" t="s">
         <v>55</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -1974,14 +2007,14 @@
       <c r="D60" t="s">
         <v>102</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -1994,14 +2027,14 @@
       <c r="D61" t="s">
         <v>15</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -2014,14 +2047,14 @@
       <c r="D62" t="s">
         <v>104</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2034,14 +2067,14 @@
       <c r="D63" t="s">
         <v>48</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>10</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -2054,14 +2087,14 @@
       <c r="D64" t="s">
         <v>106</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -2074,14 +2107,14 @@
       <c r="D65" t="s">
         <v>46</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -2094,14 +2127,14 @@
       <c r="D66" t="s">
         <v>44</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>12</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -2114,14 +2147,14 @@
       <c r="D67" t="s">
         <v>15</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>48</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -2134,14 +2167,14 @@
       <c r="D68" t="s">
         <v>32</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -2154,14 +2187,14 @@
       <c r="D69" t="s">
         <v>15</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -2174,14 +2207,14 @@
       <c r="D70" t="s">
         <v>113</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -2194,14 +2227,14 @@
       <c r="D71" t="s">
         <v>115</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -2214,14 +2247,14 @@
       <c r="D72" t="s">
         <v>62</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -2234,14 +2267,14 @@
       <c r="D73" t="s">
         <v>9</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -2254,14 +2287,14 @@
       <c r="D74" t="s">
         <v>119</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -2274,14 +2307,14 @@
       <c r="D75" t="s">
         <v>115</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -2294,14 +2327,14 @@
       <c r="D76" t="s">
         <v>32</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2314,14 +2347,14 @@
       <c r="D77" t="s">
         <v>15</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>122</v>
       </c>
@@ -2334,14 +2367,14 @@
       <c r="D78" t="s">
         <v>32</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -2354,14 +2387,14 @@
       <c r="D79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>10</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>64</v>
       </c>
@@ -2374,14 +2407,14 @@
       <c r="D80" t="s">
         <v>9</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -2394,14 +2427,14 @@
       <c r="D81" t="s">
         <v>79</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -2414,14 +2447,14 @@
       <c r="D82" t="s">
         <v>25</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>6</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -2434,14 +2467,14 @@
       <c r="D83" t="s">
         <v>46</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -2454,14 +2487,14 @@
       <c r="D84" t="s">
         <v>55</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>5</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -2474,14 +2507,14 @@
       <c r="D85" t="s">
         <v>102</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -2494,14 +2527,14 @@
       <c r="D86" t="s">
         <v>48</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -2514,14 +2547,14 @@
       <c r="D87" t="s">
         <v>32</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -2534,14 +2567,14 @@
       <c r="D88" t="s">
         <v>15</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -2554,14 +2587,14 @@
       <c r="D89" t="s">
         <v>55</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>131</v>
       </c>
@@ -2574,14 +2607,14 @@
       <c r="D90" t="s">
         <v>15</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>132</v>
       </c>
@@ -2594,14 +2627,14 @@
       <c r="D91" t="s">
         <v>55</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -2614,14 +2647,14 @@
       <c r="D92" t="s">
         <v>46</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>134</v>
       </c>
@@ -2634,14 +2667,14 @@
       <c r="D93" t="s">
         <v>15</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>135</v>
       </c>
@@ -2654,14 +2687,14 @@
       <c r="D94" t="s">
         <v>136</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>71</v>
       </c>
@@ -2674,14 +2707,14 @@
       <c r="D95" t="s">
         <v>32</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>137</v>
       </c>
@@ -2694,14 +2727,14 @@
       <c r="D96" t="s">
         <v>15</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>138</v>
       </c>
@@ -2714,14 +2747,14 @@
       <c r="D97" t="s">
         <v>15</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -2734,14 +2767,14 @@
       <c r="D98" t="s">
         <v>15</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -2754,14 +2787,14 @@
       <c r="D99" t="s">
         <v>29</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>140</v>
       </c>
@@ -2774,14 +2807,14 @@
       <c r="D100" t="s">
         <v>42</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>141</v>
       </c>
@@ -2794,14 +2827,14 @@
       <c r="D101" t="s">
         <v>55</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>26</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>142</v>
       </c>
@@ -2814,14 +2847,14 @@
       <c r="D102" t="s">
         <v>9</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>4</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>143</v>
       </c>
@@ -2834,14 +2867,14 @@
       <c r="D103" t="s">
         <v>15</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>144</v>
       </c>
@@ -2854,7 +2887,7 @@
       <c r="D104" t="s">
         <v>136</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>10</v>
       </c>
       <c r="F104" t="s">
@@ -2863,6 +2896,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>